--- a/biology/Zoologie/Cassenoix_moucheté/Cassenoix_moucheté.xlsx
+++ b/biology/Zoologie/Cassenoix_moucheté/Cassenoix_moucheté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassenoix_mouchet%C3%A9</t>
+          <t>Cassenoix_moucheté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nucifraga caryocatactes
 Le Cassenoix moucheté (Nucifraga caryocatactes) est une espèce de passereaux de la famille des Corvidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassenoix_mouchet%C3%A9</t>
+          <t>Cassenoix_moucheté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau a le corps brun foncé, parsemé de taches blanches en forme de gouttes, plus serrées sur la face où elles forment un masque clair qui contraste avec le bec noir et la calotte brun foncé. Les rémiges sont noires, tout comme la queue avec une étroite barre terminale blanche et une grande zone blanche sous sa base.
 Le jeune présente un aspect général grisâtre ou chocolat au lait, avec les taches blanches très diffuses.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassenoix_mouchet%C3%A9</t>
+          <t>Cassenoix_moucheté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,19 +564,175 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chant
-Cris «kree kree kree» ou «kra kra kra» émis en série, moins criards que ceux du Geai des chênes et avec une résonance caractéristique.
-Régime alimentaire
-Le régime alimentaire est à dominante végétale, et il affectionne particulièrement les noisetiers en plaine, les pignes du pin cembro (arole) en montagne, ou du pin de Sibérie, ou des épicéas, selon les régions où il vit. Il aime aussi les baies, tous les fruits secs, mais aussi les petits invertébrés.
+          <t>Chant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cris «kree kree kree» ou «kra kra kra» émis en série, moins criards que ceux du Geai des chênes et avec une résonance caractéristique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régime alimentaire est à dominante végétale, et il affectionne particulièrement les noisetiers en plaine, les pignes du pin cembro (arole) en montagne, ou du pin de Sibérie, ou des épicéas, selon les régions où il vit. Il aime aussi les baies, tous les fruits secs, mais aussi les petits invertébrés.
 Pour l'hiver, il cache ses réserves de nourriture dans plusieurs milliers de caches qu'il  disperse sur tout son domaine et mémorise, comme le geai des chênes. Il mémorise des repères visuels qui lui permettent de retrouver ses caches même sous la neige. Il arrive à en retrouver à peu près les deux tiers — ou trois quarts — qui lui servent à se nourrir durant l'hiver, le restant pourra servir de nourriture aux rongeurs, ou germer et croître. Le cassenoix moucheté est donc un propagateur des espèces dont il consomme les graines.
 Les jeunes se nourrissent aussi de graines, mais aussi d'invertébrés, qui constituent un apport indispensable de protéines d'origine animale pendant leur croissance.
-Reproduction
-Site du nid
-Le nid est installé dans un épicéa, un pin, à une hauteur variant entre 4 m et 10 m, ou souvent, près d'un tronc. Cette espèce niche jusqu'à 2 200 m d'altitude[1]. 
-Nid
-Le couple construit une coupe avec des brindilles de mélèze, mêlées à de la terre et à des copeaux de bois pourri, puis il la garnit de lichens, de tiges et de feuilles sèches de graminées. Cette structure est très isolante[1]. 
-Nichée
-ponte : entre début mars et le début juillet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Site du nid</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nid est installé dans un épicéa, un pin, à une hauteur variant entre 4 m et 10 m, ou souvent, près d'un tronc. Cette espèce niche jusqu'à 2 200 m d'altitude. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nid</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le couple construit une coupe avec des brindilles de mélèze, mêlées à de la terre et à des copeaux de bois pourri, puis il la garnit de lichens, de tiges et de feuilles sèches de graminées. Cette structure est très isolante. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nichée</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ponte : entre début mars et le début juillet
 œufs : deux à quatre, exceptionnellement cinq allant du bleu au verdâtre, pointillés de brun et de gris
 couvaison : 18-22 jours, par les deux parents.
 nourrissage des jeunes : par les deux parents avec envol à 23-25 jours, apprentissage des jeunes durant une centaine de jours.
@@ -572,31 +742,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau sédentaire dépend des ressources du milieu en noisettes et graines de pins et d'épicéas, qu'il cache à la bonne saison en prévision de l'hiver, dans un territoire de dix à cent hectares — selon les ressources alimentaires du lieu — et un rayon maximal d'environ 10 km. Il apprécie particulièrement les épicéas à feuillage épais qui lui assurent une protection naturelle contre la neige pour le nid et des caches de nourriture.
 Les jeunes adultes, pour trouver un territoire, s'éloignent de leurs parents sur une distance de 10 à 15 km.
@@ -606,31 +778,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Cassenoix moucheté de Wallonie (Nucifraga caryocatactes caryocatactes) en Belgique et en Allemagne
 Cassenoix moucheté de Sibérie (Nucifraga caryocatactes macrorhynchos)
@@ -639,69 +813,111 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Espèces ressemblantes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassenoix moucheté ne peut être confondu avec aucune autre espèce, si ce n'est le cas échéant, dans de très mauvaises conditions d'observation, avec le Geai des chênes, lequel présente cependant des marques bleues et blanches sur les ailes, bien visibles même pour le néophyte, et un aspect général bigarré.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Le cassenoix moucheté et l'Homme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-La conservation de l'espèce est liée à l'abondance des arbres dont elle consomme les graines (noisetiers, pins cembro…) et à celle des plantations serrées d'épicéas tardivement éclaircies.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La conservation de l'espèce est liée à l'abondance des arbres dont elle consomme les graines (noisetiers, pins cembro…) et à celle des plantations serrées d'épicéas tardivement éclaircies.
 Le Cassenoix moucheté est inscrit à l'annexe I (espèce non chassable) de la Directive Oiseaux de l'Union européenne et à l'annexe 3 (protection relative) de la Convention de Berne.
 Il bénéficie d'une protection totale en Belgique depuis la convention Benelux, A.G.W. du 14 juillet 1994 relative à la protection des oiseaux, ainsi qu'en France.
-Image culturelle
-Le Cassenoix moucheté est l'emblème du Parc national suisse ; l'oiseau est représenté de manière stylisée, en vol, tenant dans son bec une pigne du pin cembro. L'espèce est effectivement commune dans les Grisons et est particulièrement présente dans le Parc national où les promeneurs peuvent l'observer aisément.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cassenoix_moucheté</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassenoix_mouchet%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Le cassenoix moucheté et l'Homme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Image culturelle</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cassenoix moucheté est l'emblème du Parc national suisse ; l'oiseau est représenté de manière stylisée, en vol, tenant dans son bec une pigne du pin cembro. L'espèce est effectivement commune dans les Grisons et est particulièrement présente dans le Parc national où les promeneurs peuvent l'observer aisément.
 </t>
         </is>
       </c>
